--- a/需求跟踪矩阵/需求跟踪矩阵.xlsx
+++ b/需求跟踪矩阵/需求跟踪矩阵.xlsx
@@ -939,11 +939,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,9 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,241 +959,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1214,7 +1199,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,4452 +1518,4377 @@
   <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="88" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="88" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2" t="s">
+    <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2" t="s">
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="8" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="11" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="10" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="10" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="23" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="23" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="23" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="23" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="23" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="23" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="23" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="23" t="s">
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="23" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="23" t="s">
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="29" t="s">
+      <c r="A52" s="77"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="29" t="s">
+      <c r="A53" s="77"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="29" t="s">
+      <c r="A54" s="77"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="29" t="s">
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="24" t="s">
+      <c r="A57" s="77"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="24" t="s">
+      <c r="A58" s="77"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="24" t="s">
+      <c r="A59" s="77"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="24" t="s">
+      <c r="A60" s="77"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="24" t="s">
+      <c r="A61" s="77"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="24" t="s">
+      <c r="A62" s="77"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="24" t="s">
+      <c r="A63" s="77"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="24" t="s">
+      <c r="A64" s="77"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="24" t="s">
+      <c r="A65" s="77"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="24" t="s">
+      <c r="A66" s="77"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="24" t="s">
+      <c r="A67" s="77"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="24" t="s">
+      <c r="A68" s="77"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="29" t="s">
+      <c r="A69" s="77"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="29" t="s">
+      <c r="A70" s="78"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="26" t="s">
+      <c r="A72" s="77"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="26" t="s">
+      <c r="A73" s="77"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="26" t="s">
+      <c r="A74" s="77"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="26" t="s">
+      <c r="A75" s="77"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="26" t="s">
+      <c r="A76" s="77"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="26" t="s">
+      <c r="A77" s="77"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="26" t="s">
+      <c r="A78" s="77"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="26" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="25" t="s">
+      <c r="A80" s="77"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="25" t="s">
+      <c r="A81" s="77"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="25" t="s">
+      <c r="A82" s="77"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="25" t="s">
+      <c r="A83" s="77"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="25" t="s">
+      <c r="A84" s="77"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="27" t="s">
+      <c r="A85" s="77"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="27" t="s">
+      <c r="A86" s="78"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="28" t="s">
+      <c r="A88" s="77"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="28" t="s">
+      <c r="A89" s="77"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="28" t="s">
+      <c r="A90" s="77"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="28" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="34" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="34" t="s">
+      <c r="A95" s="77"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="34" t="s">
+      <c r="A96" s="77"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="34" t="s">
+      <c r="A97" s="78"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="34" t="s">
+      <c r="A99" s="77"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="34" t="s">
+      <c r="A100" s="77"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="34" t="s">
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="30" t="s">
+      <c r="A104" s="77"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="30" t="s">
+      <c r="A105" s="77"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="30" t="s">
+      <c r="A106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="30" t="s">
+      <c r="A107" s="77"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="30" t="s">
+      <c r="A108" s="77"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="30" t="s">
+      <c r="A109" s="77"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="30" t="s">
+      <c r="A110" s="77"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="30" t="s">
+      <c r="A111" s="77"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="30" t="s">
+      <c r="A112" s="77"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="31" t="s">
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="31" t="s">
+      <c r="A115" s="77"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="31" t="s">
+      <c r="A116" s="77"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="31" t="s">
+      <c r="A117" s="77"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="90"/>
+      <c r="D117" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="31" t="s">
+      <c r="A118" s="77"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="31" t="s">
+      <c r="A119" s="77"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="31" t="s">
+      <c r="A120" s="77"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="31" t="s">
+      <c r="A121" s="77"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="90"/>
+      <c r="D121" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="31" t="s">
+      <c r="A122" s="77"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="90"/>
+      <c r="D122" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="31" t="s">
+      <c r="A123" s="77"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="31" t="s">
+      <c r="A124" s="78"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="32" t="s">
+      <c r="A126" s="77"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="32" t="s">
+      <c r="A127" s="77"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="32" t="s">
+      <c r="A128" s="77"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="32" t="s">
+      <c r="A129" s="77"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="32" t="s">
+      <c r="A130" s="77"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="32" t="s">
+      <c r="A131" s="77"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="32" t="s">
+      <c r="A132" s="77"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="32" t="s">
+      <c r="A133" s="77"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="32" t="s">
+      <c r="A134" s="77"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E134" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="32" t="s">
+      <c r="A135" s="77"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="32" t="s">
+      <c r="A136" s="78"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E136" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="D137" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="33" t="s">
+      <c r="A138" s="77"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="33" t="s">
+      <c r="A139" s="77"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="33" t="s">
+      <c r="A140" s="77"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="33" t="s">
+      <c r="A141" s="77"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="90"/>
+      <c r="D141" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="33" t="s">
+      <c r="A142" s="77"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E142" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="33" t="s">
+      <c r="A143" s="77"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="33" t="s">
+      <c r="A144" s="77"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="E144" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="33" t="s">
+      <c r="A145" s="77"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="33" t="s">
+      <c r="A146" s="77"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="E146" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="33" t="s">
+      <c r="A147" s="78"/>
+      <c r="B147" s="78"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="D148" s="35" t="s">
+      <c r="D148" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="35" t="s">
+      <c r="A149" s="78"/>
+      <c r="B149" s="78"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="D150" s="36" t="s">
+      <c r="D150" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="36" t="s">
+      <c r="A151" s="77"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="36" t="s">
+      <c r="A152" s="77"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="36" t="s">
+      <c r="A153" s="78"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="D154" s="37" t="s">
+      <c r="D154" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="37" t="s">
+      <c r="A155" s="77"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="90"/>
+      <c r="D155" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="37" t="s">
+      <c r="A156" s="77"/>
+      <c r="B156" s="77"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="38" t="s">
+      <c r="A157" s="78"/>
+      <c r="B157" s="78"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="D158" s="38" t="s">
+      <c r="D158" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="38" t="s">
+      <c r="A159" s="78"/>
+      <c r="B159" s="78"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E159" s="17" t="s">
+      <c r="E159" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="38"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="39" t="s">
+      <c r="A161" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="39" t="s">
+      <c r="B161" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D161" s="39" t="s">
+      <c r="D161" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E161" s="17" t="s">
+      <c r="E161" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="44" t="s">
+      <c r="D162" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="44" t="s">
+      <c r="A163" s="78"/>
+      <c r="B163" s="78"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="17" t="s">
+      <c r="E163" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="D164" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="45" t="s">
+      <c r="A165" s="77"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="90"/>
+      <c r="D165" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E165" s="17" t="s">
+      <c r="E165" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="45" t="s">
+      <c r="A166" s="77"/>
+      <c r="B166" s="77"/>
+      <c r="C166" s="90"/>
+      <c r="D166" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E166" s="17" t="s">
+      <c r="E166" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="45" t="s">
+      <c r="A167" s="77"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="90"/>
+      <c r="D167" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E167" s="17" t="s">
+      <c r="E167" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="45" t="s">
+      <c r="A168" s="77"/>
+      <c r="B168" s="77"/>
+      <c r="C168" s="90"/>
+      <c r="D168" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E168" s="17" t="s">
+      <c r="E168" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="45" t="s">
+      <c r="A169" s="77"/>
+      <c r="B169" s="77"/>
+      <c r="C169" s="90"/>
+      <c r="D169" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E169" s="17" t="s">
+      <c r="E169" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="45" t="s">
+      <c r="A170" s="78"/>
+      <c r="B170" s="78"/>
+      <c r="C170" s="89"/>
+      <c r="D170" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E170" s="17" t="s">
+      <c r="E170" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C171" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D171" s="46" t="s">
+      <c r="D171" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="46" t="s">
+      <c r="A172" s="78"/>
+      <c r="B172" s="78"/>
+      <c r="C172" s="89"/>
+      <c r="D172" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B173" s="47" t="s">
+      <c r="B173" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="47" t="s">
+      <c r="D173" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C174" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D174" s="48" t="s">
+      <c r="D174" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="48" t="s">
+      <c r="A175" s="78"/>
+      <c r="B175" s="78"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D176" s="49" t="s">
+      <c r="D176" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="49" t="s">
+      <c r="A177" s="83"/>
+      <c r="B177" s="83"/>
+      <c r="C177" s="91"/>
+      <c r="D177" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C178" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D178" s="49" t="s">
+      <c r="D178" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="49" t="s">
+      <c r="A179" s="78"/>
+      <c r="B179" s="78"/>
+      <c r="C179" s="89"/>
+      <c r="D179" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C180" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D180" s="49" t="s">
+      <c r="D180" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="49" t="s">
+      <c r="A181" s="77"/>
+      <c r="B181" s="77"/>
+      <c r="C181" s="90"/>
+      <c r="D181" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="49" t="s">
+      <c r="A182" s="78"/>
+      <c r="B182" s="78"/>
+      <c r="C182" s="89"/>
+      <c r="D182" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="D183" s="50" t="s">
+      <c r="D183" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="50" t="s">
+      <c r="A184" s="78"/>
+      <c r="B184" s="78"/>
+      <c r="C184" s="89"/>
+      <c r="D184" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="50" t="s">
+      <c r="A185" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B185" s="50" t="s">
+      <c r="B185" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D185" s="50" t="s">
+      <c r="D185" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="C186" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D186" s="51" t="s">
+      <c r="D186" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="52" t="s">
+      <c r="A187" s="77"/>
+      <c r="B187" s="77"/>
+      <c r="C187" s="90"/>
+      <c r="D187" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="52" t="s">
+      <c r="A188" s="78"/>
+      <c r="B188" s="78"/>
+      <c r="C188" s="89"/>
+      <c r="D188" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C189" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D189" s="52" t="s">
+      <c r="D189" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="53" t="s">
+      <c r="A190" s="77"/>
+      <c r="B190" s="77"/>
+      <c r="C190" s="90"/>
+      <c r="D190" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="53" t="s">
+      <c r="A191" s="78"/>
+      <c r="B191" s="78"/>
+      <c r="C191" s="89"/>
+      <c r="D191" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C192" s="14" t="s">
+      <c r="C192" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="53" t="s">
+      <c r="D192" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="53" t="s">
+      <c r="A193" s="77"/>
+      <c r="B193" s="77"/>
+      <c r="C193" s="90"/>
+      <c r="D193" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="53" t="s">
+      <c r="A194" s="78"/>
+      <c r="B194" s="78"/>
+      <c r="C194" s="89"/>
+      <c r="D194" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C195" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="D195" s="53" t="s">
+      <c r="D195" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="54" t="s">
+      <c r="A196" s="78"/>
+      <c r="B196" s="78"/>
+      <c r="C196" s="89"/>
+      <c r="D196" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C197" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D197" s="55" t="s">
+      <c r="D197" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="55" t="s">
+      <c r="A198" s="78"/>
+      <c r="B198" s="78"/>
+      <c r="C198" s="89"/>
+      <c r="D198" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E198" s="17" t="s">
+      <c r="E198" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="55" t="s">
+      <c r="A199" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B199" s="55" t="s">
+      <c r="B199" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D199" s="55" t="s">
+      <c r="D199" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B200" s="9" t="s">
+      <c r="A200" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B200" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C200" s="57" t="s">
+      <c r="C200" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D200" s="56" t="s">
+      <c r="D200" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="58"/>
-      <c r="D201" s="56" t="s">
+      <c r="A201" s="78"/>
+      <c r="B201" s="78"/>
+      <c r="C201" s="81"/>
+      <c r="D201" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B202" s="9" t="s">
+      <c r="A202" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B202" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C202" s="57" t="s">
+      <c r="C202" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D202" s="60" t="s">
+      <c r="D202" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
-      <c r="B203" s="13"/>
-      <c r="C203" s="59"/>
-      <c r="D203" s="60" t="s">
+      <c r="A203" s="77"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="80"/>
+      <c r="D203" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E203" s="17" t="s">
+      <c r="E203" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="13"/>
-      <c r="C204" s="59"/>
-      <c r="D204" s="60" t="s">
+      <c r="A204" s="77"/>
+      <c r="B204" s="77"/>
+      <c r="C204" s="80"/>
+      <c r="D204" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E204" s="17" t="s">
+      <c r="E204" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="58"/>
-      <c r="D205" s="60" t="s">
+      <c r="A205" s="78"/>
+      <c r="B205" s="78"/>
+      <c r="C205" s="81"/>
+      <c r="D205" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E205" s="17" t="s">
+      <c r="E205" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B206" s="60" t="s">
+      <c r="A206" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B206" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D206" s="60" t="s">
+      <c r="D206" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E206" s="17" t="s">
+      <c r="E206" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B207" s="60" t="s">
+      <c r="A207" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B207" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D207" s="60" t="s">
+      <c r="D207" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E207" s="17" t="s">
+      <c r="E207" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B208" s="9" t="s">
+      <c r="A208" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B208" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C208" s="57" t="s">
+      <c r="C208" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D208" s="60" t="s">
+      <c r="D208" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="E208" s="17" t="s">
+      <c r="E208" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
-      <c r="B209" s="13"/>
-      <c r="C209" s="59"/>
-      <c r="D209" s="60" t="s">
+      <c r="A209" s="77"/>
+      <c r="B209" s="77"/>
+      <c r="C209" s="80"/>
+      <c r="D209" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E209" s="17" t="s">
+      <c r="E209" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="60" t="s">
+      <c r="A210" s="77"/>
+      <c r="B210" s="77"/>
+      <c r="C210" s="80"/>
+      <c r="D210" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="E210" s="17" t="s">
+      <c r="E210" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="58"/>
-      <c r="D211" s="60" t="s">
+      <c r="A211" s="78"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="81"/>
+      <c r="D211" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E211" s="17" t="s">
+      <c r="E211" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B212" s="60" t="s">
+      <c r="A212" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B212" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D212" s="60" t="s">
+      <c r="D212" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E212" s="17" t="s">
+      <c r="E212" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B213" s="60" t="s">
+      <c r="A213" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B213" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D213" s="60" t="s">
+      <c r="D213" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E213" s="17" t="s">
+      <c r="E213" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B214" s="60" t="s">
+      <c r="A214" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B214" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D214" s="60" t="s">
+      <c r="D214" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E214" s="17" t="s">
+      <c r="E214" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B215" s="1" t="s">
+      <c r="A215" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B215" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C215" s="43" t="s">
+      <c r="C215" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D215" s="61" t="s">
+      <c r="D215" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="43"/>
-      <c r="D216" s="61" t="s">
+      <c r="A216" s="83"/>
+      <c r="B216" s="83"/>
+      <c r="C216" s="87"/>
+      <c r="D216" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E216" s="17" t="s">
+      <c r="E216" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="43"/>
-      <c r="D217" s="61" t="s">
+      <c r="A217" s="83"/>
+      <c r="B217" s="83"/>
+      <c r="C217" s="87"/>
+      <c r="D217" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E217" s="17" t="s">
+      <c r="E217" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="B218" s="61" t="s">
+      <c r="A218" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B218" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D218" s="61" t="s">
+      <c r="D218" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E218" s="17" t="s">
+      <c r="E218" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="A219" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C219" s="43" t="s">
+      <c r="C219" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D219" s="62" t="s">
+      <c r="D219" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E219" s="17" t="s">
+      <c r="E219" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="43"/>
-      <c r="D220" s="62" t="s">
+      <c r="A220" s="83"/>
+      <c r="B220" s="83"/>
+      <c r="C220" s="87"/>
+      <c r="D220" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E220" s="17" t="s">
+      <c r="E220" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="43"/>
-      <c r="D221" s="62" t="s">
+      <c r="A221" s="83"/>
+      <c r="B221" s="83"/>
+      <c r="C221" s="87"/>
+      <c r="D221" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E221" s="17" t="s">
+      <c r="E221" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="43"/>
-      <c r="D222" s="62" t="s">
+      <c r="A222" s="83"/>
+      <c r="B222" s="83"/>
+      <c r="C222" s="87"/>
+      <c r="D222" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E222" s="17" t="s">
+      <c r="E222" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B223" s="62" t="s">
+      <c r="A223" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B223" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D223" s="62" t="s">
+      <c r="D223" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E223" s="17" t="s">
+      <c r="E223" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B224" s="62" t="s">
+      <c r="A224" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B224" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D224" s="62" t="s">
+      <c r="D224" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E224" s="17" t="s">
+      <c r="E224" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B225" s="62" t="s">
+      <c r="A225" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B225" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D225" s="62" t="s">
+      <c r="D225" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E225" s="17" t="s">
+      <c r="E225" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B226" s="9" t="s">
+      <c r="A226" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C226" s="57" t="s">
+      <c r="C226" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D226" s="63" t="s">
+      <c r="D226" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="13"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="59"/>
-      <c r="D227" s="63" t="s">
+      <c r="A227" s="77"/>
+      <c r="B227" s="77"/>
+      <c r="C227" s="80"/>
+      <c r="D227" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="58"/>
-      <c r="D228" s="63" t="s">
+      <c r="A228" s="78"/>
+      <c r="B228" s="78"/>
+      <c r="C228" s="81"/>
+      <c r="D228" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B229" s="9" t="s">
+      <c r="A229" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C229" s="57" t="s">
+      <c r="C229" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D229" s="64" t="s">
+      <c r="D229" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="13"/>
-      <c r="B230" s="13"/>
-      <c r="C230" s="59"/>
-      <c r="D230" s="64" t="s">
+      <c r="A230" s="77"/>
+      <c r="B230" s="77"/>
+      <c r="C230" s="80"/>
+      <c r="D230" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="59"/>
-      <c r="D231" s="64" t="s">
+      <c r="A231" s="77"/>
+      <c r="B231" s="77"/>
+      <c r="C231" s="80"/>
+      <c r="D231" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E231" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="59"/>
-      <c r="D232" s="64" t="s">
+      <c r="A232" s="77"/>
+      <c r="B232" s="77"/>
+      <c r="C232" s="80"/>
+      <c r="D232" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E232" s="17" t="s">
+      <c r="E232" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="58"/>
-      <c r="D233" s="64" t="s">
+      <c r="A233" s="78"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="81"/>
+      <c r="D233" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E233" s="17" t="s">
+      <c r="E233" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="B234" s="65" t="s">
+      <c r="A234" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D234" s="65" t="s">
+      <c r="D234" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="E234" s="17" t="s">
+      <c r="E234" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="B235" s="66" t="s">
+      <c r="A235" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D235" s="66" t="s">
+      <c r="D235" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E235" s="17" t="s">
+      <c r="E235" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B236" s="9" t="s">
+      <c r="A236" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C236" s="57" t="s">
+      <c r="C236" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D236" s="66" t="s">
+      <c r="D236" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="58"/>
-      <c r="D237" s="66" t="s">
+      <c r="A237" s="78"/>
+      <c r="B237" s="78"/>
+      <c r="C237" s="81"/>
+      <c r="D237" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E237" s="17" t="s">
+      <c r="E237" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B238" s="9" t="s">
+      <c r="A238" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="C238" s="57" t="s">
+      <c r="C238" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D238" s="67" t="s">
+      <c r="D238" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="E238" s="17" t="s">
+      <c r="E238" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="13"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="59"/>
-      <c r="D239" s="67" t="s">
+      <c r="A239" s="77"/>
+      <c r="B239" s="77"/>
+      <c r="C239" s="80"/>
+      <c r="D239" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="E239" s="17" t="s">
+      <c r="E239" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
-      <c r="B240" s="13"/>
-      <c r="C240" s="59"/>
-      <c r="D240" s="67" t="s">
+      <c r="A240" s="77"/>
+      <c r="B240" s="77"/>
+      <c r="C240" s="80"/>
+      <c r="D240" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E240" s="17" t="s">
+      <c r="E240" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="58"/>
-      <c r="D241" s="67" t="s">
+      <c r="A241" s="78"/>
+      <c r="B241" s="78"/>
+      <c r="C241" s="81"/>
+      <c r="D241" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E241" s="17" t="s">
+      <c r="E241" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242" s="68" t="s">
+      <c r="A242" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C242" s="17" t="s">
+      <c r="C242" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D242" s="68" t="s">
+      <c r="D242" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" s="69" t="s">
+      <c r="A243" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C243" s="17" t="s">
+      <c r="C243" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D243" s="69" t="s">
+      <c r="D243" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E243" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B244" s="69" t="s">
+      <c r="A244" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C244" s="17" t="s">
+      <c r="C244" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D244" s="69" t="s">
+      <c r="D244" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E244" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B245" s="69" t="s">
+      <c r="A245" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D245" s="69" t="s">
+      <c r="D245" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E245" s="17" t="s">
+      <c r="E245" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B246" s="69" t="s">
+      <c r="A246" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C246" s="17" t="s">
+      <c r="C246" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D246" s="69" t="s">
+      <c r="D246" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E246" s="17" t="s">
+      <c r="E246" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B247" s="1" t="s">
+      <c r="A247" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="C247" s="43" t="s">
+      <c r="C247" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D247" s="70" t="s">
+      <c r="D247" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="43"/>
-      <c r="D248" s="70" t="s">
+      <c r="A248" s="83"/>
+      <c r="B248" s="83"/>
+      <c r="C248" s="87"/>
+      <c r="D248" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="43"/>
-      <c r="D249" s="70" t="s">
+      <c r="A249" s="83"/>
+      <c r="B249" s="83"/>
+      <c r="C249" s="87"/>
+      <c r="D249" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E249" s="17" t="s">
+      <c r="E249" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B250" s="9" t="s">
+      <c r="A250" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B250" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C250" s="57" t="s">
+      <c r="C250" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D250" s="70" t="s">
+      <c r="D250" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="59"/>
-      <c r="D251" s="70" t="s">
+      <c r="A251" s="77"/>
+      <c r="B251" s="77"/>
+      <c r="C251" s="80"/>
+      <c r="D251" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="58"/>
-      <c r="D252" s="70" t="s">
+      <c r="A252" s="78"/>
+      <c r="B252" s="78"/>
+      <c r="C252" s="81"/>
+      <c r="D252" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="E252" s="17" t="s">
+      <c r="E252" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B253" s="9" t="s">
+      <c r="A253" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B253" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C253" s="57" t="s">
+      <c r="C253" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D253" s="71" t="s">
+      <c r="D253" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="13"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="59"/>
-      <c r="D254" s="71" t="s">
+      <c r="A254" s="77"/>
+      <c r="B254" s="77"/>
+      <c r="C254" s="80"/>
+      <c r="D254" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="58"/>
-      <c r="D255" s="72" t="s">
+      <c r="A255" s="78"/>
+      <c r="B255" s="78"/>
+      <c r="C255" s="81"/>
+      <c r="D255" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E255" s="17" t="s">
+      <c r="E255" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B256" s="9" t="s">
+      <c r="A256" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B256" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C256" s="57" t="s">
+      <c r="C256" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D256" s="72" t="s">
+      <c r="D256" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E256" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="59"/>
-      <c r="D257" s="73" t="s">
+      <c r="A257" s="77"/>
+      <c r="B257" s="77"/>
+      <c r="C257" s="80"/>
+      <c r="D257" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="12"/>
-      <c r="B258" s="12"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="73" t="s">
+      <c r="A258" s="78"/>
+      <c r="B258" s="78"/>
+      <c r="C258" s="81"/>
+      <c r="D258" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E258" s="17" t="s">
+      <c r="E258" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="B259" s="73" t="s">
+      <c r="A259" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B259" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D259" s="73" t="s">
+      <c r="D259" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="B260" s="73" t="s">
+      <c r="A260" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B260" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D260" s="73" t="s">
+      <c r="D260" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B261" s="9" t="s">
+      <c r="A261" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B261" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C261" s="57" t="s">
+      <c r="C261" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D261" s="74" t="s">
+      <c r="D261" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E261" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="58"/>
-      <c r="D262" s="74" t="s">
+      <c r="A262" s="78"/>
+      <c r="B262" s="78"/>
+      <c r="C262" s="81"/>
+      <c r="D262" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E262" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B263" s="9" t="s">
+      <c r="A263" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B263" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C263" s="57" t="s">
+      <c r="C263" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D263" s="75" t="s">
+      <c r="D263" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E263" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
-      <c r="C264" s="59"/>
-      <c r="D264" s="75" t="s">
+      <c r="A264" s="77"/>
+      <c r="B264" s="77"/>
+      <c r="C264" s="80"/>
+      <c r="D264" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="58"/>
-      <c r="D265" s="75" t="s">
+      <c r="A265" s="78"/>
+      <c r="B265" s="78"/>
+      <c r="C265" s="81"/>
+      <c r="D265" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="E265" s="17" t="s">
+      <c r="E265" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B266" s="9" t="s">
+      <c r="A266" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B266" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C266" s="57" t="s">
+      <c r="C266" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D266" s="76" t="s">
+      <c r="D266" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
-      <c r="C267" s="59"/>
-      <c r="D267" s="76" t="s">
+      <c r="A267" s="77"/>
+      <c r="B267" s="77"/>
+      <c r="C267" s="80"/>
+      <c r="D267" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E267" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="12"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="58"/>
-      <c r="D268" s="76" t="s">
+      <c r="A268" s="78"/>
+      <c r="B268" s="78"/>
+      <c r="C268" s="81"/>
+      <c r="D268" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="E268" s="17" t="s">
+      <c r="E268" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B269" s="9" t="s">
+      <c r="A269" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B269" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C269" s="57" t="s">
+      <c r="C269" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D269" s="76" t="s">
+      <c r="D269" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
-      <c r="B270" s="13"/>
-      <c r="C270" s="59"/>
-      <c r="D270" s="77" t="s">
+      <c r="A270" s="77"/>
+      <c r="B270" s="77"/>
+      <c r="C270" s="80"/>
+      <c r="D270" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E270" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="58"/>
-      <c r="D271" s="77" t="s">
+      <c r="A271" s="78"/>
+      <c r="B271" s="78"/>
+      <c r="C271" s="81"/>
+      <c r="D271" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="E271" s="17" t="s">
+      <c r="E271" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B272" s="9" t="s">
+      <c r="A272" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B272" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C272" s="57" t="s">
+      <c r="C272" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D272" s="77" t="s">
+      <c r="D272" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E272" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
-      <c r="B273" s="13"/>
-      <c r="C273" s="59"/>
-      <c r="D273" s="77" t="s">
+      <c r="A273" s="77"/>
+      <c r="B273" s="77"/>
+      <c r="C273" s="80"/>
+      <c r="D273" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="58"/>
-      <c r="D274" s="78" t="s">
+      <c r="A274" s="78"/>
+      <c r="B274" s="78"/>
+      <c r="C274" s="81"/>
+      <c r="D274" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="E274" s="17" t="s">
+      <c r="E274" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="B275" s="78" t="s">
+      <c r="A275" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B275" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D275" s="78" t="s">
+      <c r="D275" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E275" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="B276" s="78" t="s">
+      <c r="A276" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B276" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C276" s="17" t="s">
+      <c r="C276" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D276" s="78" t="s">
+      <c r="D276" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E276" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B277" s="9" t="s">
+      <c r="A277" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B277" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C277" s="57" t="s">
+      <c r="C277" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D277" s="78" t="s">
+      <c r="D277" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E277" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="58"/>
-      <c r="D278" s="79" t="s">
+      <c r="A278" s="78"/>
+      <c r="B278" s="78"/>
+      <c r="C278" s="81"/>
+      <c r="D278" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B279" s="9" t="s">
+      <c r="A279" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B279" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C279" s="57" t="s">
+      <c r="C279" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D279" s="88" t="s">
+      <c r="D279" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="E279" s="17" t="s">
+      <c r="E279" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
-      <c r="B280" s="13"/>
-      <c r="C280" s="59"/>
-      <c r="D280" s="88" t="s">
+      <c r="A280" s="77"/>
+      <c r="B280" s="77"/>
+      <c r="C280" s="80"/>
+      <c r="D280" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="E280" s="17" t="s">
+      <c r="E280" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13"/>
-      <c r="C281" s="59"/>
-      <c r="D281" s="88" t="s">
+      <c r="A281" s="77"/>
+      <c r="B281" s="77"/>
+      <c r="C281" s="80"/>
+      <c r="D281" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="E281" s="17" t="s">
+      <c r="E281" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="12"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="58"/>
-      <c r="D282" s="88" t="s">
+      <c r="A282" s="78"/>
+      <c r="B282" s="78"/>
+      <c r="C282" s="81"/>
+      <c r="D282" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E282" s="17" t="s">
+      <c r="E282" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="B283" s="79" t="s">
+      <c r="A283" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="B283" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C283" s="17" t="s">
+      <c r="C283" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D283" s="79" t="s">
+      <c r="D283" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E283" s="17" t="s">
+      <c r="E283" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="B284" s="80" t="s">
+      <c r="A284" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B284" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C284" s="17" t="s">
+      <c r="C284" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D284" s="80" t="s">
+      <c r="D284" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E284" s="17" t="s">
+      <c r="E284" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="B285" s="80" t="s">
+      <c r="A285" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B285" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C285" s="17" t="s">
+      <c r="C285" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D285" s="80" t="s">
+      <c r="D285" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E285" s="17" t="s">
+      <c r="E285" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="B286" s="80" t="s">
+      <c r="A286" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B286" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="C286" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D286" s="80" t="s">
+      <c r="D286" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E286" s="17" t="s">
+      <c r="E286" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B287" s="9" t="s">
+      <c r="A287" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B287" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="C287" s="57" t="s">
+      <c r="C287" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="81" t="s">
+      <c r="D287" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E287" s="17" t="s">
+      <c r="E287" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="13"/>
-      <c r="B288" s="13"/>
-      <c r="C288" s="59"/>
-      <c r="D288" s="82" t="s">
+      <c r="A288" s="77"/>
+      <c r="B288" s="77"/>
+      <c r="C288" s="80"/>
+      <c r="D288" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="E288" s="17" t="s">
+      <c r="E288" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="58"/>
-      <c r="D289" s="83" t="s">
+      <c r="A289" s="78"/>
+      <c r="B289" s="78"/>
+      <c r="C289" s="81"/>
+      <c r="D289" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E289" s="17" t="s">
+      <c r="E289" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B290" s="9" t="s">
+      <c r="A290" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B290" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="C290" s="57" t="s">
+      <c r="C290" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D290" s="83" t="s">
+      <c r="D290" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E290" s="17" t="s">
+      <c r="E290" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="58"/>
-      <c r="D291" s="83" t="s">
+      <c r="A291" s="78"/>
+      <c r="B291" s="78"/>
+      <c r="C291" s="81"/>
+      <c r="D291" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="E291" s="17" t="s">
+      <c r="E291" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="B292" s="83" t="s">
+      <c r="A292" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="B292" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="C292" s="17" t="s">
+      <c r="C292" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D292" s="83" t="s">
+      <c r="D292" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E292" s="17" t="s">
+      <c r="E292" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B293" s="89" t="s">
+      <c r="A293" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B293" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="C293" s="57" t="s">
+      <c r="C293" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D293" s="83" t="s">
+      <c r="D293" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="E293" s="17" t="s">
+      <c r="E293" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
-      <c r="B294" s="90"/>
-      <c r="C294" s="59"/>
-      <c r="D294" s="84" t="s">
+      <c r="A294" s="77"/>
+      <c r="B294" s="85"/>
+      <c r="C294" s="80"/>
+      <c r="D294" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="E294" s="17" t="s">
+      <c r="E294" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
-      <c r="B295" s="90"/>
-      <c r="C295" s="59"/>
-      <c r="D295" s="84" t="s">
+      <c r="A295" s="77"/>
+      <c r="B295" s="85"/>
+      <c r="C295" s="80"/>
+      <c r="D295" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="E295" s="17" t="s">
+      <c r="E295" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="13"/>
-      <c r="B296" s="90"/>
-      <c r="C296" s="59"/>
-      <c r="D296" s="84" t="s">
+      <c r="A296" s="77"/>
+      <c r="B296" s="85"/>
+      <c r="C296" s="80"/>
+      <c r="D296" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="E296" s="17" t="s">
+      <c r="E296" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="13"/>
-      <c r="B297" s="90"/>
-      <c r="C297" s="59"/>
-      <c r="D297" s="84" t="s">
+      <c r="A297" s="77"/>
+      <c r="B297" s="85"/>
+      <c r="C297" s="80"/>
+      <c r="D297" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E297" s="17" t="s">
+      <c r="E297" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="13"/>
-      <c r="B298" s="90"/>
-      <c r="C298" s="59"/>
-      <c r="D298" s="85" t="s">
+      <c r="A298" s="77"/>
+      <c r="B298" s="85"/>
+      <c r="C298" s="80"/>
+      <c r="D298" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="E298" s="17" t="s">
+      <c r="E298" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="12"/>
-      <c r="B299" s="91"/>
-      <c r="C299" s="58"/>
-      <c r="D299" s="85" t="s">
+      <c r="A299" s="78"/>
+      <c r="B299" s="86"/>
+      <c r="C299" s="81"/>
+      <c r="D299" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="E299" s="17" t="s">
+      <c r="E299" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="B300" s="85" t="s">
+      <c r="A300" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="B300" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="C300" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D300" s="85" t="s">
+      <c r="D300" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="E300" s="17" t="s">
+      <c r="E300" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="B301" s="85" t="s">
+      <c r="A301" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="B301" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C301" s="17" t="s">
+      <c r="C301" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D301" s="85" t="s">
+      <c r="D301" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="E301" s="17" t="s">
+      <c r="E301" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B302" s="9" t="s">
+      <c r="A302" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B302" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="C302" s="57" t="s">
+      <c r="C302" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D302" s="86" t="s">
+      <c r="D302" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="E302" s="17" t="s">
+      <c r="E302" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="12"/>
-      <c r="B303" s="12"/>
-      <c r="C303" s="58"/>
-      <c r="D303" s="86" t="s">
+      <c r="A303" s="78"/>
+      <c r="B303" s="78"/>
+      <c r="C303" s="81"/>
+      <c r="D303" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E303" s="17" t="s">
+      <c r="E303" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B304" s="9" t="s">
+      <c r="A304" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B304" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="C304" s="57" t="s">
+      <c r="C304" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D304" s="86" t="s">
+      <c r="D304" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="E304" s="17" t="s">
+      <c r="E304" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="12"/>
-      <c r="B305" s="12"/>
-      <c r="C305" s="58"/>
-      <c r="D305" s="86" t="s">
+      <c r="A305" s="78"/>
+      <c r="B305" s="78"/>
+      <c r="C305" s="81"/>
+      <c r="D305" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E305" s="17" t="s">
+      <c r="E305" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B306" s="9" t="s">
+      <c r="A306" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B306" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C306" s="57" t="s">
+      <c r="C306" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D306" s="87" t="s">
+      <c r="D306" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E306" s="3" t="s">
+      <c r="E306" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="13"/>
-      <c r="B307" s="13"/>
-      <c r="C307" s="59"/>
-      <c r="D307" s="87" t="s">
+      <c r="A307" s="77"/>
+      <c r="B307" s="77"/>
+      <c r="C307" s="80"/>
+      <c r="D307" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="E307" s="17" t="s">
+      <c r="E307" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="13"/>
-      <c r="B308" s="13"/>
-      <c r="C308" s="59"/>
-      <c r="D308" s="88" t="s">
+      <c r="A308" s="77"/>
+      <c r="B308" s="77"/>
+      <c r="C308" s="80"/>
+      <c r="D308" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="E308" s="17" t="s">
+      <c r="E308" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="13"/>
-      <c r="B309" s="13"/>
-      <c r="C309" s="59"/>
-      <c r="D309" s="88" t="s">
+      <c r="A309" s="77"/>
+      <c r="B309" s="77"/>
+      <c r="C309" s="80"/>
+      <c r="D309" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="E309" s="17" t="s">
+      <c r="E309" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="13"/>
-      <c r="B310" s="13"/>
-      <c r="C310" s="59"/>
-      <c r="D310" s="88" t="s">
+      <c r="A310" s="77"/>
+      <c r="B310" s="77"/>
+      <c r="C310" s="80"/>
+      <c r="D310" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="E310" s="17" t="s">
+      <c r="E310" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="58"/>
-      <c r="D311" s="88" t="s">
+      <c r="A311" s="78"/>
+      <c r="B311" s="78"/>
+      <c r="C311" s="81"/>
+      <c r="D311" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="E311" s="17" t="s">
+      <c r="E311" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B312" s="88" t="s">
+      <c r="A312" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B312" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D312" s="88" t="s">
+      <c r="D312" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E312" s="17" t="s">
+      <c r="E312" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B313" s="88" t="s">
+      <c r="A313" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B313" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="C313" s="17" t="s">
+      <c r="C313" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D313" s="88" t="s">
+      <c r="D313" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E313" s="17" t="s">
+      <c r="E313" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B314" s="88" t="s">
+      <c r="A314" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B314" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="C314" s="17" t="s">
+      <c r="C314" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D314" s="88" t="s">
+      <c r="D314" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E314" s="17" t="s">
+      <c r="E314" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B315" s="88" t="s">
+      <c r="A315" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B315" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="C315" s="17" t="s">
+      <c r="C315" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D315" s="88" t="s">
+      <c r="D315" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E315" s="17" t="s">
+      <c r="E315" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B316" s="88" t="s">
+      <c r="A316" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B316" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="C316" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D316" s="88" t="s">
+      <c r="D316" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E316" s="17" t="s">
+      <c r="E316" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B317" s="88" t="s">
+      <c r="A317" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B317" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C317" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D317" s="88"/>
-      <c r="E317" s="88"/>
+      <c r="D317" s="75"/>
+      <c r="E317" s="75"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B318" s="88" t="s">
+      <c r="A318" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B318" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C318" s="17" t="s">
+      <c r="C318" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D318" s="88"/>
-      <c r="E318" s="88"/>
+      <c r="D318" s="75"/>
+      <c r="E318" s="75"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B319" s="9" t="s">
+      <c r="A319" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B319" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="C319" s="57" t="s">
+      <c r="C319" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="D319" s="88" t="s">
+      <c r="D319" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="E319" s="17" t="s">
+      <c r="E319" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="13"/>
-      <c r="B320" s="13"/>
-      <c r="C320" s="59"/>
-      <c r="D320" s="88" t="s">
+      <c r="A320" s="77"/>
+      <c r="B320" s="77"/>
+      <c r="C320" s="80"/>
+      <c r="D320" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="E320" s="17" t="s">
+      <c r="E320" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="13"/>
-      <c r="B321" s="13"/>
-      <c r="C321" s="59"/>
-      <c r="D321" s="88" t="s">
+      <c r="A321" s="77"/>
+      <c r="B321" s="77"/>
+      <c r="C321" s="80"/>
+      <c r="D321" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E321" s="17" t="s">
+      <c r="E321" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="13"/>
-      <c r="B322" s="13"/>
-      <c r="C322" s="59"/>
-      <c r="D322" s="88" t="s">
+      <c r="A322" s="77"/>
+      <c r="B322" s="77"/>
+      <c r="C322" s="80"/>
+      <c r="D322" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="E322" s="17" t="s">
+      <c r="E322" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="12"/>
-      <c r="B323" s="12"/>
-      <c r="C323" s="58"/>
-      <c r="D323" s="88" t="s">
+      <c r="A323" s="78"/>
+      <c r="B323" s="78"/>
+      <c r="C323" s="81"/>
+      <c r="D323" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="E323" s="17" t="s">
+      <c r="E323" s="9" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B324" s="88" t="s">
+      <c r="A324" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B324" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C324" s="17" t="s">
+      <c r="C324" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D324" s="88" t="s">
+      <c r="D324" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E324" s="17" t="s">
+      <c r="E324" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B325" s="88" t="s">
+      <c r="A325" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B325" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D325" s="88" t="s">
+      <c r="D325" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E325" s="17" t="s">
+      <c r="E325" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B326" s="88" t="s">
+      <c r="A326" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B326" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="C326" s="17" t="s">
+      <c r="C326" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D326" s="88" t="s">
+      <c r="D326" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E326" s="17" t="s">
+      <c r="E326" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B327" s="88" t="s">
+      <c r="A327" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B327" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="C327" s="17" t="s">
+      <c r="C327" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D327" s="88" t="s">
+      <c r="D327" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E327" s="17" t="s">
+      <c r="E327" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B328" s="88" t="s">
+      <c r="A328" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B328" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="C328" s="17" t="s">
+      <c r="C328" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D328" s="88" t="s">
+      <c r="D328" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="E328" s="17" t="s">
+      <c r="E328" s="9" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A256:A258"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="A253:A255"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="B279:B282"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="C293:C299"/>
-    <mergeCell ref="B293:B299"/>
-    <mergeCell ref="A293:A299"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="B247:B249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="A319:A323"/>
-    <mergeCell ref="B319:B323"/>
-    <mergeCell ref="C319:C323"/>
-    <mergeCell ref="A306:A311"/>
-    <mergeCell ref="B306:B311"/>
-    <mergeCell ref="C306:C311"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C229:C233"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="B219:B222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="C164:C170"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C56:C70"/>
+    <mergeCell ref="B56:B70"/>
+    <mergeCell ref="A56:A70"/>
+    <mergeCell ref="A71:A86"/>
+    <mergeCell ref="B71:B86"/>
+    <mergeCell ref="C71:C86"/>
+    <mergeCell ref="C41:C55"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="A114:A124"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C158:C159"/>
@@ -5991,52 +5913,127 @@
     <mergeCell ref="B103:B113"/>
     <mergeCell ref="C103:C113"/>
     <mergeCell ref="C114:C124"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="A114:A124"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C56:C70"/>
-    <mergeCell ref="B56:B70"/>
-    <mergeCell ref="A56:A70"/>
-    <mergeCell ref="A71:A86"/>
-    <mergeCell ref="B71:B86"/>
-    <mergeCell ref="C71:C86"/>
-    <mergeCell ref="C41:C55"/>
-    <mergeCell ref="A41:A55"/>
-    <mergeCell ref="B41:B55"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="A319:A323"/>
+    <mergeCell ref="B319:B323"/>
+    <mergeCell ref="C319:C323"/>
+    <mergeCell ref="A306:A311"/>
+    <mergeCell ref="B306:B311"/>
+    <mergeCell ref="C306:C311"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="C293:C299"/>
+    <mergeCell ref="B293:B299"/>
+    <mergeCell ref="A293:A299"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="B279:B282"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="B250:B252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A256:A258"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="B253:B255"/>
+    <mergeCell ref="A253:A255"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C229:C233"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="B219:B222"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
